--- a/backend/assets/DEPARA_PRODUTOS.xlsx
+++ b/backend/assets/DEPARA_PRODUTOS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.drivas\Documents\GitHub\integracao-vetwork-woocommerce\backend\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.drivas\Documents\github\integracao-vetwork-woocommerce\backend\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D2DE09-34EE-4C65-8071-36136D179067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEPARA" sheetId="6" r:id="rId1"/>
@@ -17,9 +18,20 @@
     <sheet name="WC" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DEPARA!$A$1:$H$418</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DEPARA!$A$1:$H$417</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3842,7 +3854,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4204,12 +4216,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J418"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E374" sqref="E374"/>
+      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F390" sqref="F390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4218,7 +4230,7 @@
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="39.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
@@ -13598,7 +13610,7 @@
         <v>Seniox Avert 500 mg 30 Cápsulas</v>
       </c>
       <c r="H323" s="2" t="str">
-        <f t="shared" ref="H323:H383" si="5">IF(B323=D323,"OK","ERRADO")</f>
+        <f t="shared" ref="H323:H386" si="5">IF(B323=D323,"OK","ERRADO")</f>
         <v>OK</v>
       </c>
       <c r="I323" s="2" t="s">
@@ -14948,363 +14960,393 @@
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A372" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B372" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A372" s="2">
+        <v>439</v>
+      </c>
+      <c r="B372" s="1">
+        <v>7898582493265</v>
       </c>
       <c r="C372" s="2">
         <v>4996</v>
       </c>
-      <c r="D372" s="1"/>
-      <c r="E372" s="2" t="e">
+      <c r="D372" s="1">
+        <v>7898582493265</v>
+      </c>
+      <c r="E372" s="2" t="str">
         <f>VLOOKUP(A372,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL P/CACHORROS H WAVE M</v>
       </c>
       <c r="F372" s="2" t="str">
         <f>VLOOKUP(C372,WC!$A$2:$E$421,3,FALSE)</f>
         <v>Peitoral para cachorros H Wave - M</v>
       </c>
-      <c r="H372" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="H372" s="2" t="str">
+        <f>IF(B372=D372,"OK","ERRADO")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A373" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B373" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A373" s="2">
+        <v>438</v>
+      </c>
+      <c r="B373" s="1">
+        <v>7898582493272</v>
       </c>
       <c r="C373" s="2">
         <v>4997</v>
       </c>
-      <c r="D373" s="1"/>
-      <c r="E373" s="2" t="e">
+      <c r="D373" s="1">
+        <v>7898582493272</v>
+      </c>
+      <c r="E373" s="2" t="str">
         <f>VLOOKUP(A373,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL P/CACHORROS H WAVE P</v>
       </c>
       <c r="F373" s="2" t="str">
         <f>VLOOKUP(C373,WC!$A$2:$E$421,3,FALSE)</f>
         <v>Peitoral para cachorros H Wave - P</v>
       </c>
-      <c r="H373" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="H373" s="2" t="str">
+        <f>IF(B373=D373,"OK","ERRADO")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A374" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B374" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A374" s="2">
+        <v>902</v>
+      </c>
+      <c r="B374" s="1">
+        <v>7898582496051</v>
       </c>
       <c r="C374" s="2">
         <v>5001</v>
       </c>
-      <c r="D374" s="1"/>
-      <c r="E374" s="2" t="e">
+      <c r="D374" s="1">
+        <v>7898582496051</v>
+      </c>
+      <c r="E374" s="2" t="str">
         <f>VLOOKUP(A374,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL PARA CACHORROS H YANSUN P</v>
       </c>
       <c r="F374" s="2" t="str">
         <f>VLOOKUP(C374,WC!$A$2:$E$421,3,FALSE)</f>
         <v>Peitoral para cachorros H Yansun - P</v>
       </c>
-      <c r="H374" s="2" t="e">
+      <c r="H374" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A375" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B375" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A375" s="2">
+        <v>903</v>
+      </c>
+      <c r="B375" s="1">
+        <v>7898582496136</v>
       </c>
       <c r="C375" s="2">
         <v>5010</v>
       </c>
-      <c r="D375" s="1"/>
-      <c r="E375" s="2" t="e">
+      <c r="D375" s="1">
+        <v>7898582496136</v>
+      </c>
+      <c r="E375" s="2" t="str">
         <f>VLOOKUP(A375,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL PARA CACHORROS H SAME P</v>
       </c>
       <c r="F375" s="2" t="str">
         <f>VLOOKUP(C375,WC!$A$2:$E$421,3,FALSE)</f>
         <v>Peitoral para cachorros H  Samé - P</v>
       </c>
-      <c r="H375" s="2" t="e">
+      <c r="H375" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A376" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B376" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A376" s="2">
+        <v>431</v>
+      </c>
+      <c r="B376" s="1">
+        <v>7898582493180</v>
       </c>
       <c r="C376" s="2">
         <v>5015</v>
       </c>
-      <c r="D376" s="1"/>
-      <c r="E376" s="2" t="e">
+      <c r="D376" s="1">
+        <v>7898582493180</v>
+      </c>
+      <c r="E376" s="2" t="str">
         <f>VLOOKUP(A376,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL P/CACHORROS H SOLARIS M</v>
       </c>
       <c r="F376" s="2" t="str">
         <f>VLOOKUP(C376,WC!$A$2:$E$421,3,FALSE)</f>
         <v>Peitoral para cachorros H  Solaris - M</v>
       </c>
-      <c r="H376" s="2" t="e">
+      <c r="H376" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A377" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B377" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A377" s="2">
+        <v>430</v>
+      </c>
+      <c r="B377" s="1">
+        <v>7898582493197</v>
       </c>
       <c r="C377" s="2">
         <v>5016</v>
       </c>
-      <c r="D377" s="1"/>
-      <c r="E377" s="2" t="e">
+      <c r="D377" s="1">
+        <v>7898582493197</v>
+      </c>
+      <c r="E377" s="2" t="str">
         <f>VLOOKUP(A377,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL P/CACHORROS H SOLARIS P</v>
       </c>
       <c r="F377" s="2" t="str">
         <f>VLOOKUP(C377,WC!$A$2:$E$421,3,FALSE)</f>
         <v>Peitoral para cachorros H  Solaris - P</v>
       </c>
-      <c r="H377" s="2" t="e">
+      <c r="H377" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A378" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B378" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A378" s="2">
+        <v>442</v>
+      </c>
+      <c r="B378" s="1">
+        <v>7898582493210</v>
       </c>
       <c r="C378" s="2">
         <v>5025</v>
       </c>
-      <c r="D378" s="1"/>
-      <c r="E378" s="2" t="e">
+      <c r="D378" s="1">
+        <v>7898582493210</v>
+      </c>
+      <c r="E378" s="2" t="str">
         <f>VLOOKUP(A378,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL P/ CACHORROS H TIDE G</v>
       </c>
       <c r="F378" s="2" t="str">
         <f>VLOOKUP(C378,WC!$A$2:$E$421,3,FALSE)</f>
         <v>Peitoral para cachorros H  Tide - G</v>
       </c>
-      <c r="H378" s="2" t="e">
+      <c r="H378" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A379" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B379" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A379" s="2">
+        <v>444</v>
+      </c>
+      <c r="B379" s="1">
+        <v>7898582493227</v>
       </c>
       <c r="C379" s="2">
         <v>5026</v>
       </c>
-      <c r="D379" s="1"/>
-      <c r="E379" s="2" t="e">
+      <c r="D379" s="1">
+        <v>7898582493227</v>
+      </c>
+      <c r="E379" s="2" t="str">
         <f>VLOOKUP(A379,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL P/ CACHORROS H TIDE M</v>
       </c>
       <c r="F379" s="2" t="str">
         <f>VLOOKUP(C379,WC!$A$2:$E$421,3,FALSE)</f>
         <v>Peitoral para cachorros H  Tide - M</v>
       </c>
-      <c r="H379" s="2" t="e">
+      <c r="H379" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A380" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B380" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A380" s="2">
+        <v>679</v>
+      </c>
+      <c r="B380" s="1">
+        <v>7898582485048</v>
       </c>
       <c r="C380" s="2">
         <v>5028</v>
       </c>
-      <c r="D380" s="1"/>
-      <c r="E380" s="2" t="e">
+      <c r="D380" s="1">
+        <v>7898582485048</v>
+      </c>
+      <c r="E380" s="2" t="str">
         <f>VLOOKUP(A380,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL H TOY STORY LITTLE GREEN MEN G</v>
       </c>
       <c r="F380" s="2" t="str">
         <f>VLOOKUP(C380,WC!$A$2:$E$421,3,FALSE)</f>
         <v>Peitoral para cachorros H Toy Story  Little Green Man - G</v>
       </c>
-      <c r="H380" s="2" t="e">
+      <c r="H380" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A381" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B381" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A381" s="2">
+        <v>411</v>
+      </c>
+      <c r="B381" s="1">
+        <v>7898582483389</v>
       </c>
       <c r="C381" s="2">
-        <v>5031</v>
-      </c>
-      <c r="D381" s="1"/>
-      <c r="E381" s="2" t="e">
+        <v>5033</v>
+      </c>
+      <c r="D381" s="1">
+        <v>7898582483389</v>
+      </c>
+      <c r="E381" s="2" t="str">
         <f>VLOOKUP(A381,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL H PATAGONIA M</v>
       </c>
       <c r="F381" s="2" t="str">
         <f>VLOOKUP(C381,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H  Phantom - G</v>
-      </c>
-      <c r="H381" s="2" t="e">
+        <v>Peitoral para cachorros H  Patagonia - M</v>
+      </c>
+      <c r="H381" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A382" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B382" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A382" s="2">
+        <v>424</v>
+      </c>
+      <c r="B382" s="1">
+        <v>7898582483433</v>
       </c>
       <c r="C382" s="2">
-        <v>5033</v>
-      </c>
-      <c r="D382" s="1"/>
-      <c r="E382" s="2" t="e">
+        <v>5048</v>
+      </c>
+      <c r="D382" s="1">
+        <v>7898582483433</v>
+      </c>
+      <c r="E382" s="2" t="str">
         <f>VLOOKUP(A382,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL ANTI-PUXAO TWIST P</v>
       </c>
       <c r="F382" s="2" t="str">
         <f>VLOOKUP(C382,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H  Patagonia - M</v>
-      </c>
-      <c r="H382" s="2" t="e">
+        <v>PEITORAL ANTI-PUXAO TWIST - P</v>
+      </c>
+      <c r="H382" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A383" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B383" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A383" s="2">
+        <v>735</v>
+      </c>
+      <c r="B383" s="1">
+        <v>7898582477364</v>
       </c>
       <c r="C383" s="2">
-        <v>5048</v>
-      </c>
-      <c r="D383" s="1"/>
-      <c r="E383" s="2" t="e">
+        <v>5050</v>
+      </c>
+      <c r="D383" s="1">
+        <v>7898582477364</v>
+      </c>
+      <c r="E383" s="2" t="str">
         <f>VLOOKUP(A383,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL H BART SIMPSON P</v>
       </c>
       <c r="F383" s="2" t="str">
         <f>VLOOKUP(C383,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>PEITORAL ANTI-PUXAO TWIST - P</v>
-      </c>
-      <c r="H383" s="2" t="e">
+        <v>PEITORAL H BART SIMPSON - P</v>
+      </c>
+      <c r="H383" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A384" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B384" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A384" s="2">
+        <v>741</v>
+      </c>
+      <c r="B384" s="1">
+        <v>7898582477234</v>
       </c>
       <c r="C384" s="2">
-        <v>5050</v>
-      </c>
-      <c r="D384" s="1"/>
-      <c r="E384" s="2" t="e">
+        <v>5053</v>
+      </c>
+      <c r="D384" s="1">
+        <v>7898582477234</v>
+      </c>
+      <c r="E384" s="2" t="str">
         <f>VLOOKUP(A384,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL H HOMER SIMPSON M</v>
       </c>
       <c r="F384" s="2" t="str">
         <f>VLOOKUP(C384,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>PEITORAL H BART SIMPSON - P</v>
-      </c>
-      <c r="H384" s="2" t="e">
-        <f t="shared" ref="H384:H418" si="6">IF(B384=D384,"OK","ERRADO")</f>
-        <v>#N/A</v>
+        <v>PEITORAL H HOMER SIMPSON - M</v>
+      </c>
+      <c r="H384" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A385" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B385" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A385" s="2">
+        <v>681</v>
+      </c>
+      <c r="B385" s="1">
+        <v>7898582487059</v>
       </c>
       <c r="C385" s="2">
-        <v>5053</v>
-      </c>
-      <c r="D385" s="1"/>
-      <c r="E385" s="2" t="e">
+        <v>5057</v>
+      </c>
+      <c r="D385" s="1">
+        <v>7898582487059</v>
+      </c>
+      <c r="E385" s="2" t="str">
         <f>VLOOKUP(A385,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL H MONSTROS SA SULLEY M</v>
       </c>
       <c r="F385" s="2" t="str">
         <f>VLOOKUP(C385,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>PEITORAL H HOMER SIMPSON - M</v>
-      </c>
-      <c r="H385" s="2" t="e">
-        <f t="shared" si="6"/>
+        <v>PEITORAL H MONSTROS SA SULLEY - M</v>
+      </c>
+      <c r="H385" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A386" s="2">
+        <v>682</v>
+      </c>
+      <c r="B386" s="1">
+        <v>7898582487066</v>
+      </c>
+      <c r="C386" s="2">
+        <v>5675</v>
+      </c>
+      <c r="D386" s="1">
+        <v>7898582487066</v>
+      </c>
+      <c r="E386" s="2" t="str">
+        <f>VLOOKUP(A386,VW!$A$2:$D$892,2,FALSE)</f>
+        <v>PEITORAL H MONSTROS SA SULLEY P</v>
+      </c>
+      <c r="F386" s="2" t="e">
+        <f>VLOOKUP(C386,WC!$A$2:$E$421,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A386" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B386" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C386" s="2">
-        <v>5057</v>
-      </c>
-      <c r="D386" s="1"/>
-      <c r="E386" s="2" t="e">
-        <f>VLOOKUP(A386,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F386" s="2" t="str">
-        <f>VLOOKUP(C386,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>PEITORAL H MONSTROS SA SULLEY - M</v>
-      </c>
-      <c r="H386" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
+      <c r="H386" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
@@ -15315,7 +15357,7 @@
         <v>#N/A</v>
       </c>
       <c r="C387" s="2">
-        <v>5058</v>
+        <v>5061</v>
       </c>
       <c r="D387" s="1"/>
       <c r="E387" s="2" t="e">
@@ -15324,10 +15366,10 @@
       </c>
       <c r="F387" s="2" t="str">
         <f>VLOOKUP(C387,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>PEITORAL H MONSTROS SA SULLEY - P</v>
+        <v>PEITORAL H SKULL - M</v>
       </c>
       <c r="H387" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H387:H417" si="6">IF(B387=D387,"OK","ERRADO")</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15339,7 +15381,7 @@
         <v>#N/A</v>
       </c>
       <c r="C388" s="2">
-        <v>5061</v>
+        <v>5371</v>
       </c>
       <c r="D388" s="1"/>
       <c r="E388" s="2" t="e">
@@ -15348,7 +15390,7 @@
       </c>
       <c r="F388" s="2" t="str">
         <f>VLOOKUP(C388,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>PEITORAL H SKULL - M</v>
+        <v>Guia Para Cachorros Pato Donald - P</v>
       </c>
       <c r="H388" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15363,7 +15405,7 @@
         <v>#N/A</v>
       </c>
       <c r="C389" s="2">
-        <v>5371</v>
+        <v>5376</v>
       </c>
       <c r="D389" s="1"/>
       <c r="E389" s="2" t="e">
@@ -15372,7 +15414,7 @@
       </c>
       <c r="F389" s="2" t="str">
         <f>VLOOKUP(C389,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia Para Cachorros Pato Donald - P</v>
+        <v>Guia Para Cachorros Bart Simpson P - P</v>
       </c>
       <c r="H389" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15387,7 +15429,7 @@
         <v>#N/A</v>
       </c>
       <c r="C390" s="2">
-        <v>5376</v>
+        <v>5378</v>
       </c>
       <c r="D390" s="1"/>
       <c r="E390" s="2" t="e">
@@ -15396,7 +15438,7 @@
       </c>
       <c r="F390" s="2" t="str">
         <f>VLOOKUP(C390,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia Para Cachorros Bart Simpson P - P</v>
+        <v>Bebedouro Portátil American Pets Fresh Azul para Cães Grande - Azul, M</v>
       </c>
       <c r="H390" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15411,7 +15453,7 @@
         <v>#N/A</v>
       </c>
       <c r="C391" s="2">
-        <v>5378</v>
+        <v>5379</v>
       </c>
       <c r="D391" s="1"/>
       <c r="E391" s="2" t="e">
@@ -15420,7 +15462,7 @@
       </c>
       <c r="F391" s="2" t="str">
         <f>VLOOKUP(C391,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Bebedouro Portátil American Pets Fresh Azul para Cães Grande - Azul, M</v>
+        <v>Bebedouro Portátil American Pets Fresh Azul para Cães Grande - Azul, P</v>
       </c>
       <c r="H391" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15435,7 +15477,7 @@
         <v>#N/A</v>
       </c>
       <c r="C392" s="2">
-        <v>5379</v>
+        <v>5381</v>
       </c>
       <c r="D392" s="1"/>
       <c r="E392" s="2" t="e">
@@ -15444,7 +15486,7 @@
       </c>
       <c r="F392" s="2" t="str">
         <f>VLOOKUP(C392,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Bebedouro Portátil American Pets Fresh Azul para Cães Grande - Azul, P</v>
+        <v>Bebedouro Portátil American Pets Fresh Azul para Cães Grande - Rosa, P</v>
       </c>
       <c r="H392" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15459,16 +15501,18 @@
         <v>#N/A</v>
       </c>
       <c r="C393" s="2">
-        <v>5381</v>
-      </c>
-      <c r="D393" s="1"/>
+        <v>5513</v>
+      </c>
+      <c r="D393" s="1">
+        <v>7898582476138</v>
+      </c>
       <c r="E393" s="2" t="e">
         <f>VLOOKUP(A393,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F393" s="2" t="str">
         <f>VLOOKUP(C393,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Bebedouro Portátil American Pets Fresh Azul para Cães Grande - Rosa, P</v>
+        <v>Peitoral para cachorros H Atlanta</v>
       </c>
       <c r="H393" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15483,18 +15527,16 @@
         <v>#N/A</v>
       </c>
       <c r="C394" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D394" s="1">
-        <v>7898582476138</v>
-      </c>
+        <v>5514</v>
+      </c>
+      <c r="D394" s="1"/>
       <c r="E394" s="2" t="e">
         <f>VLOOKUP(A394,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F394" s="2" t="str">
         <f>VLOOKUP(C394,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H Atlanta</v>
+        <v>Peitoral para cachorros H Atlanta - P</v>
       </c>
       <c r="H394" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15509,7 +15551,7 @@
         <v>#N/A</v>
       </c>
       <c r="C395" s="2">
-        <v>5514</v>
+        <v>5526</v>
       </c>
       <c r="D395" s="1"/>
       <c r="E395" s="2" t="e">
@@ -15518,7 +15560,7 @@
       </c>
       <c r="F395" s="2" t="str">
         <f>VLOOKUP(C395,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H Atlanta - P</v>
+        <v>Guia com amortecedor para cachorros  Gotham - G</v>
       </c>
       <c r="H395" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15533,7 +15575,7 @@
         <v>#N/A</v>
       </c>
       <c r="C396" s="2">
-        <v>5526</v>
+        <v>5527</v>
       </c>
       <c r="D396" s="1"/>
       <c r="E396" s="2" t="e">
@@ -15542,7 +15584,7 @@
       </c>
       <c r="F396" s="2" t="str">
         <f>VLOOKUP(C396,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia com amortecedor para cachorros  Gotham - G</v>
+        <v>Guia com amortecedor para cachorros  Gotham - P</v>
       </c>
       <c r="H396" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15557,7 +15599,7 @@
         <v>#N/A</v>
       </c>
       <c r="C397" s="2">
-        <v>5527</v>
+        <v>5529</v>
       </c>
       <c r="D397" s="1"/>
       <c r="E397" s="2" t="e">
@@ -15566,7 +15608,7 @@
       </c>
       <c r="F397" s="2" t="str">
         <f>VLOOKUP(C397,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia com amortecedor para cachorros  Gotham - P</v>
+        <v>Guia para cachorros Atlanta</v>
       </c>
       <c r="H397" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15581,16 +15623,18 @@
         <v>#N/A</v>
       </c>
       <c r="C398" s="2">
-        <v>5529</v>
-      </c>
-      <c r="D398" s="1"/>
+        <v>5533</v>
+      </c>
+      <c r="D398" s="1">
+        <v>7898582476381</v>
+      </c>
       <c r="E398" s="2" t="e">
         <f>VLOOKUP(A398,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F398" s="2" t="str">
         <f>VLOOKUP(C398,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia para cachorros Atlanta</v>
+        <v>Guia para cachorros Atlanta - P</v>
       </c>
       <c r="H398" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15605,18 +15649,16 @@
         <v>#N/A</v>
       </c>
       <c r="C399" s="2">
-        <v>5533</v>
-      </c>
-      <c r="D399" s="1">
-        <v>7898582476381</v>
-      </c>
+        <v>5534</v>
+      </c>
+      <c r="D399" s="1"/>
       <c r="E399" s="2" t="e">
         <f>VLOOKUP(A399,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F399" s="2" t="str">
         <f>VLOOKUP(C399,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia para cachorros Atlanta - P</v>
+        <v>Guia para cachorros Lola</v>
       </c>
       <c r="H399" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15631,16 +15673,18 @@
         <v>#N/A</v>
       </c>
       <c r="C400" s="2">
-        <v>5534</v>
-      </c>
-      <c r="D400" s="1"/>
+        <v>5535</v>
+      </c>
+      <c r="D400" s="1">
+        <v>7898582459384</v>
+      </c>
       <c r="E400" s="2" t="e">
         <f>VLOOKUP(A400,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F400" s="2" t="str">
         <f>VLOOKUP(C400,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia para cachorros Lola</v>
+        <v>Guia para cachorros Lola - P</v>
       </c>
       <c r="H400" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15655,18 +15699,16 @@
         <v>#N/A</v>
       </c>
       <c r="C401" s="2">
-        <v>5535</v>
-      </c>
-      <c r="D401" s="1">
-        <v>7898582459384</v>
-      </c>
+        <v>5541</v>
+      </c>
+      <c r="D401" s="1"/>
       <c r="E401" s="2" t="e">
         <f>VLOOKUP(A401,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F401" s="2" t="str">
         <f>VLOOKUP(C401,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia para cachorros Lola - P</v>
+        <v>Peitoral para cachorros H Lola</v>
       </c>
       <c r="H401" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15681,7 +15723,7 @@
         <v>#N/A</v>
       </c>
       <c r="C402" s="2">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D402" s="1"/>
       <c r="E402" s="2" t="e">
@@ -15690,7 +15732,7 @@
       </c>
       <c r="F402" s="2" t="str">
         <f>VLOOKUP(C402,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H Lola</v>
+        <v>Peitoral para cachorros H Lola - P</v>
       </c>
       <c r="H402" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15705,7 +15747,7 @@
         <v>#N/A</v>
       </c>
       <c r="C403" s="2">
-        <v>5542</v>
+        <v>5548</v>
       </c>
       <c r="D403" s="1"/>
       <c r="E403" s="2" t="e">
@@ -15714,7 +15756,7 @@
       </c>
       <c r="F403" s="2" t="str">
         <f>VLOOKUP(C403,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H Lola - P</v>
+        <v>Peitoral para cachorros H Mahalo</v>
       </c>
       <c r="H403" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15729,16 +15771,18 @@
         <v>#N/A</v>
       </c>
       <c r="C404" s="2">
-        <v>5548</v>
-      </c>
-      <c r="D404" s="1"/>
+        <v>5550</v>
+      </c>
+      <c r="D404" s="1">
+        <v>7898582465392</v>
+      </c>
       <c r="E404" s="2" t="e">
         <f>VLOOKUP(A404,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F404" s="2" t="str">
         <f>VLOOKUP(C404,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H Mahalo</v>
+        <v>Peitoral para cachorros H Mahalo - M</v>
       </c>
       <c r="H404" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15753,10 +15797,10 @@
         <v>#N/A</v>
       </c>
       <c r="C405" s="2">
-        <v>5550</v>
+        <v>5551</v>
       </c>
       <c r="D405" s="1">
-        <v>7898582465392</v>
+        <v>7898582465408</v>
       </c>
       <c r="E405" s="2" t="e">
         <f>VLOOKUP(A405,VW!$A$2:$D$892,2,FALSE)</f>
@@ -15764,7 +15808,7 @@
       </c>
       <c r="F405" s="2" t="str">
         <f>VLOOKUP(C405,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H Mahalo - M</v>
+        <v>Peitoral para cachorros H Mahalo - P</v>
       </c>
       <c r="H405" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15779,18 +15823,16 @@
         <v>#N/A</v>
       </c>
       <c r="C406" s="2">
-        <v>5551</v>
-      </c>
-      <c r="D406" s="1">
-        <v>7898582465408</v>
-      </c>
+        <v>5555</v>
+      </c>
+      <c r="D406" s="1"/>
       <c r="E406" s="2" t="e">
         <f>VLOOKUP(A406,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F406" s="2" t="str">
         <f>VLOOKUP(C406,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H Mahalo - P</v>
+        <v>Guia para cachorros Mahalo</v>
       </c>
       <c r="H406" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15805,16 +15847,18 @@
         <v>#N/A</v>
       </c>
       <c r="C407" s="2">
-        <v>5555</v>
-      </c>
-      <c r="D407" s="1"/>
+        <v>5556</v>
+      </c>
+      <c r="D407" s="1">
+        <v>7898582465286</v>
+      </c>
       <c r="E407" s="2" t="e">
         <f>VLOOKUP(A407,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F407" s="2" t="str">
         <f>VLOOKUP(C407,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia para cachorros Mahalo</v>
+        <v>Guia para cachorros Mahalo - P</v>
       </c>
       <c r="H407" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15829,18 +15873,16 @@
         <v>#N/A</v>
       </c>
       <c r="C408" s="2">
-        <v>5556</v>
-      </c>
-      <c r="D408" s="1">
-        <v>7898582465286</v>
-      </c>
+        <v>5560</v>
+      </c>
+      <c r="D408" s="1"/>
       <c r="E408" s="2" t="e">
         <f>VLOOKUP(A408,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F408" s="2" t="str">
         <f>VLOOKUP(C408,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia para cachorros Mahalo - P</v>
+        <v>Peitoral para cachorros H Prisma</v>
       </c>
       <c r="H408" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15855,16 +15897,18 @@
         <v>#N/A</v>
       </c>
       <c r="C409" s="2">
-        <v>5560</v>
-      </c>
-      <c r="D409" s="1"/>
+        <v>5561</v>
+      </c>
+      <c r="D409" s="1">
+        <v>7898582476091</v>
+      </c>
       <c r="E409" s="2" t="e">
         <f>VLOOKUP(A409,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F409" s="2" t="str">
         <f>VLOOKUP(C409,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H Prisma</v>
+        <v>Peitoral para cachorros H Prisma - P</v>
       </c>
       <c r="H409" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15879,18 +15923,16 @@
         <v>#N/A</v>
       </c>
       <c r="C410" s="2">
-        <v>5561</v>
-      </c>
-      <c r="D410" s="1">
-        <v>7898582476091</v>
-      </c>
+        <v>5568</v>
+      </c>
+      <c r="D410" s="1"/>
       <c r="E410" s="2" t="e">
         <f>VLOOKUP(A410,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F410" s="2" t="str">
         <f>VLOOKUP(C410,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H Prisma - P</v>
+        <v>Guia para cachorros Prisma</v>
       </c>
       <c r="H410" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15905,16 +15947,18 @@
         <v>#N/A</v>
       </c>
       <c r="C411" s="2">
-        <v>5568</v>
-      </c>
-      <c r="D411" s="1"/>
+        <v>5569</v>
+      </c>
+      <c r="D411" s="1">
+        <v>7898582476008</v>
+      </c>
       <c r="E411" s="2" t="e">
         <f>VLOOKUP(A411,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F411" s="2" t="str">
         <f>VLOOKUP(C411,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia para cachorros Prisma</v>
+        <v>Guia para cachorros Prisma - P</v>
       </c>
       <c r="H411" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15929,10 +15973,10 @@
         <v>#N/A</v>
       </c>
       <c r="C412" s="2">
-        <v>5569</v>
+        <v>5573</v>
       </c>
       <c r="D412" s="1">
-        <v>7898582476008</v>
+        <v>7898582504008</v>
       </c>
       <c r="E412" s="2" t="e">
         <f>VLOOKUP(A412,VW!$A$2:$D$892,2,FALSE)</f>
@@ -15940,7 +15984,7 @@
       </c>
       <c r="F412" s="2" t="str">
         <f>VLOOKUP(C412,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia para cachorros Prisma - P</v>
+        <v>Peitoral com guia para gatos Apache</v>
       </c>
       <c r="H412" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15955,18 +15999,16 @@
         <v>#N/A</v>
       </c>
       <c r="C413" s="2">
-        <v>5573</v>
-      </c>
-      <c r="D413" s="1">
-        <v>7898582504008</v>
-      </c>
+        <v>5579</v>
+      </c>
+      <c r="D413" s="1"/>
       <c r="E413" s="2" t="e">
         <f>VLOOKUP(A413,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F413" s="2" t="str">
         <f>VLOOKUP(C413,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral com guia para gatos Apache</v>
+        <v>Peitoral para cachorros H Phantom</v>
       </c>
       <c r="H413" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15981,16 +16023,18 @@
         <v>#N/A</v>
       </c>
       <c r="C414" s="2">
-        <v>5579</v>
-      </c>
-      <c r="D414" s="1"/>
+        <v>5581</v>
+      </c>
+      <c r="D414" s="1">
+        <v>7898582464333</v>
+      </c>
       <c r="E414" s="2" t="e">
         <f>VLOOKUP(A414,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F414" s="2" t="str">
         <f>VLOOKUP(C414,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H Phantom</v>
+        <v>Peitoral para cachorros H Phantom - M</v>
       </c>
       <c r="H414" s="2" t="e">
         <f t="shared" si="6"/>
@@ -15998,29 +16042,29 @@
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A415" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B415" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A415" s="2">
+        <v>980</v>
+      </c>
+      <c r="B415" s="1">
+        <v>7898582464340</v>
       </c>
       <c r="C415" s="2">
-        <v>5581</v>
+        <v>5582</v>
       </c>
       <c r="D415" s="1">
-        <v>7898582464333</v>
-      </c>
-      <c r="E415" s="2" t="e">
+        <v>7898582464340</v>
+      </c>
+      <c r="E415" s="2" t="str">
         <f>VLOOKUP(A415,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PEITORAL H PHANTOM P</v>
       </c>
       <c r="F415" s="2" t="str">
         <f>VLOOKUP(C415,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H Phantom - M</v>
-      </c>
-      <c r="H415" s="2" t="e">
+        <v>Peitoral para cachorros H Phantom - P</v>
+      </c>
+      <c r="H415" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.2">
@@ -16031,18 +16075,16 @@
         <v>#N/A</v>
       </c>
       <c r="C416" s="2">
-        <v>5582</v>
-      </c>
-      <c r="D416" s="1">
-        <v>7898582464340</v>
-      </c>
+        <v>5583</v>
+      </c>
+      <c r="D416" s="1"/>
       <c r="E416" s="2" t="e">
         <f>VLOOKUP(A416,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F416" s="2" t="str">
         <f>VLOOKUP(C416,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Peitoral para cachorros H Phantom - P</v>
+        <v>Guia para cachorros Phantom</v>
       </c>
       <c r="H416" s="2" t="e">
         <f t="shared" si="6"/>
@@ -16057,51 +16099,27 @@
         <v>#N/A</v>
       </c>
       <c r="C417" s="2">
-        <v>5583</v>
-      </c>
-      <c r="D417" s="1"/>
+        <v>5584</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>988</v>
+      </c>
       <c r="E417" s="2" t="e">
         <f>VLOOKUP(A417,VW!$A$2:$D$892,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F417" s="2" t="str">
         <f>VLOOKUP(C417,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia para cachorros Phantom</v>
+        <v>Guia para cachorros Phantom - P</v>
       </c>
       <c r="H417" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A418" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B418" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C418" s="2">
-        <v>5584</v>
-      </c>
-      <c r="D418" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="E418" s="2" t="e">
-        <f>VLOOKUP(A418,VW!$A$2:$D$892,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F418" s="2" t="str">
-        <f>VLOOKUP(C418,WC!$A$2:$E$421,3,FALSE)</f>
-        <v>Guia para cachorros Phantom - P</v>
-      </c>
-      <c r="H418" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H418"/>
-  <conditionalFormatting sqref="H2:H418">
+  <autoFilter ref="A1:H417" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="H2:H417">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ERRADO">
       <formula>NOT(ISERROR(SEARCH("ERRADO",H2)))</formula>
     </cfRule>
@@ -16115,7 +16133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D892"/>
   <sheetViews>
     <sheetView topLeftCell="A870" workbookViewId="0">
@@ -28252,7 +28270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E421"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
